--- a/biology/Botanique/Clematis_patens_'Ashva'/Clematis_patens_'Ashva'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Ashva'/Clematis_patens_'Ashva'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ashva%27</t>
+          <t>Clematis_patens_'Ashva'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite 'Ashva' est un cultivar de clématite patens provenant de Lituanie, obtenue par Leonardas Bakevičius.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ashva%27</t>
+          <t>Clematis_patens_'Ashva'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,19 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 3, ce qui implique une floraison printanière et automnale sur le bois de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes.
-Fleurs
-La clématite patens 'Ashva' dispose d'une fleur bleu moyen avec une barre rouge au cœur des sépales. La fleurs a un diamètre d'environ 10 cm hermaphrodites, les fleurs apparaissent au travers de bourgeons axillaires.
-Sépales
-Le sépale de la clématite 'Ashva' mesure entre 6 et 7 cm, largement elliptique, se chevauchant. Le bord est légèrement ondulé[1].
-Étamines et stigmates
-'Ashva' possède des étamines blanches et des stigmates rouges et blancs.
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -534,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ashva%27</t>
+          <t>Clematis_patens_'Ashva'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -560,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ashva%27</t>
+          <t>Clematis_patens_'Ashva'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Ashva' n'est pas protégé pour la multiplication.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite patens 'Ashva' dispose d'une fleur bleu moyen avec une barre rouge au cœur des sépales. La fleurs a un diamètre d'environ 10 cm hermaphrodites, les fleurs apparaissent au travers de bourgeons axillaires.
 </t>
         </is>
       </c>
@@ -591,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Ashva%27</t>
+          <t>Clematis_patens_'Ashva'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,23 +627,387 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sépale de la clématite 'Ashva' mesure entre 6 et 7 cm, largement elliptique, se chevauchant. Le bord est légèrement ondulé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Ashva' possède des étamines blanches et des stigmates rouges et blancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Ashva' n'est pas protégé pour la multiplication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite 'Ashva' s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger.
-Croissance
-À taille adulte cette clématite s'élance entre 2 et 3 mètres en gardant un feuillage très dense.
-Floraison
-'Ashva' fleurit deux fois par an sur le bois de l'année, au printemps 'Ashva' produit une floraison entre juin et juillet. À l'automne la floraison est entre août et septembre. Elle fait partie du groupe 3.
-Taille
-La clématite 'Ashva' a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm sur un tiers des banches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite 'Ashva' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Ashva' s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite s'élance entre 2 et 3 mètres en gardant un feuillage très dense.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Ashva' fleurit deux fois par an sur le bois de l'année, au printemps 'Ashva' produit une floraison entre juin et juillet. À l'automne la floraison est entre août et septembre. Elle fait partie du groupe 3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Ashva' a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille sévère, c'est-à-dire une taille à 30 cm sur un tiers des banches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Ashva'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Ashva%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Ashva' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 </t>
         </is>
